--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -499,7 +499,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -729,6 +729,15 @@
     <t>【JP Core仕様】レポートカテゴリーとして、LoincコードのLP29693-6(検体検査/LAB)を使用する。</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP29693-6"/&gt;
+    &lt;display value="検体検査"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
@@ -750,22 +759,13 @@
     <t>DiagnosticReport.category:laboratory.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:laboratory.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category:laboratory.coding.code</t>
   </si>
   <si>
-    <t>LP29693-6</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:laboratory.coding.display</t>
-  </si>
-  <si>
-    <t>検体検査</t>
   </si>
   <si>
     <t>DiagnosticReport.category:laboratory.coding.userSelected</t>
@@ -1663,7 +1663,7 @@
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>155</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>161</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>166</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>175</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>176</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>177</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>51</v>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>197</v>
@@ -5496,7 +5496,7 @@
         <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>41</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>203</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>212</v>
@@ -5796,14 +5796,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5825,10 +5825,10 @@
         <v>143</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5877,7 +5877,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>51</v>
@@ -5892,24 +5892,24 @@
         <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6018,10 +6018,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6132,10 +6132,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6207,7 +6207,7 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
@@ -6246,13 +6246,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>41</v>
@@ -6277,13 +6277,13 @@
         <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>171</v>
@@ -6364,10 +6364,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6476,10 +6476,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6590,10 +6590,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6619,10 +6619,10 @@
         <v>65</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>179</v>
@@ -6638,7 +6638,7 @@
         <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>41</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6820,10 +6820,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6849,10 +6849,10 @@
         <v>71</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6866,7 +6866,7 @@
         <v>41</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>41</v>
@@ -6934,10 +6934,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6963,10 +6963,10 @@
         <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6980,7 +6980,7 @@
         <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>41</v>
@@ -7048,10 +7048,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7164,10 +7164,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7280,14 +7280,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7306,19 +7306,19 @@
         <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7367,7 +7367,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7382,28 +7382,28 @@
         <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7422,19 +7422,19 @@
         <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7483,7 +7483,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7498,28 +7498,28 @@
         <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7538,19 +7538,19 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7599,7 +7599,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7614,28 +7614,28 @@
         <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7654,19 +7654,19 @@
         <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7715,7 +7715,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7733,25 +7733,25 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7770,19 +7770,19 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -7831,7 +7831,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7846,28 +7846,28 @@
         <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7886,19 +7886,19 @@
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="O55" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7947,7 +7947,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7962,24 +7962,24 @@
         <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AN55" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8002,19 +8002,19 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8063,7 +8063,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8081,10 +8081,10 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8092,14 +8092,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8118,19 +8118,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8179,7 +8179,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8197,10 +8197,10 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8234,16 +8234,16 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8293,7 +8293,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8314,7 +8314,7 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8322,14 +8322,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8348,19 +8348,19 @@
         <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8409,7 +8409,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8427,10 +8427,10 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8550,10 +8550,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8664,14 +8664,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8693,10 +8693,10 @@
         <v>97</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>100</v>
@@ -8751,7 +8751,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8780,10 +8780,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8809,16 +8809,16 @@
         <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -8867,7 +8867,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8888,7 +8888,7 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8896,10 +8896,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8922,16 +8922,16 @@
         <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8981,7 +8981,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>51</v>
@@ -9002,7 +9002,7 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9010,14 +9010,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9039,16 +9039,16 @@
         <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9097,7 +9097,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9115,10 +9115,10 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9126,10 +9126,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9155,13 +9155,13 @@
         <v>143</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9190,10 +9190,10 @@
         <v>147</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
@@ -9211,7 +9211,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9229,10 +9229,10 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9240,10 +9240,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9266,19 +9266,19 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9327,7 +9327,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9345,10 +9345,10 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -499,7 +499,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -499,7 +499,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -733,7 +733,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="LP29693-6"/&gt;
-    &lt;display value="検体検査"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -4469,10 +4468,10 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
